--- a/comment.xlsx
+++ b/comment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af69c26be6256a92/work/会社アプリ関連/チェア修理アプリ用/修理アプリファイル/githubアップロードセット/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\マイドライブ\work\会社アプリ関連\チェア修理アプリ用\修理アプリファイル\githubアップロードセット_test6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{481E7213-C6EC-44B2-B096-9C537337E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED794663-10E6-4B15-8827-E96CFCF2D122}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087370E-FE2A-4DBA-BE56-521F0673F73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1528,10 +1528,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1833,23 +1829,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F89E10-74DD-4645-9643-023642A8D72D}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" customWidth="1"/>
-    <col min="3" max="3" width="31.296875" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.296875" customWidth="1"/>
-    <col min="7" max="7" width="9.19921875" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.9140625" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.4140625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
@@ -1897,7 +1893,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>145</v>
       </c>
@@ -1913,7 +1909,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>146</v>
       </c>
@@ -1929,7 +1925,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>147</v>
       </c>
@@ -1943,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>148</v>
       </c>
@@ -1961,7 +1957,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>149</v>
       </c>
@@ -1977,7 +1973,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>150</v>
       </c>
@@ -1993,7 +1989,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>151</v>
       </c>
@@ -2010,7 +2006,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>152</v>
       </c>
@@ -2025,7 +2021,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>153</v>
       </c>
@@ -2033,7 +2029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>154</v>
       </c>
@@ -2041,7 +2037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
         <v>155</v>
       </c>
@@ -2057,7 +2053,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>155</v>
       </c>
@@ -2075,7 +2071,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
         <v>156</v>
       </c>
@@ -2089,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>157</v>
       </c>
@@ -2111,7 +2107,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2121,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>111</v>
       </c>
@@ -2144,7 +2140,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>112</v>
       </c>
@@ -2166,7 +2162,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
         <v>135</v>
       </c>
@@ -2176,7 +2172,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>113</v>
       </c>
@@ -2188,7 +2184,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>114</v>
       </c>
@@ -2214,7 +2210,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>115</v>
       </c>
@@ -2231,7 +2227,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>116</v>
       </c>
@@ -2252,7 +2248,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>117</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>118</v>
       </c>
@@ -2279,7 +2275,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>119</v>
       </c>
@@ -2293,7 +2289,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
@@ -2305,7 +2301,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>120</v>
       </c>
@@ -2317,7 +2313,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>121</v>
       </c>
@@ -2334,7 +2330,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
         <v>140</v>
       </c>
@@ -2351,7 +2347,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>122</v>
       </c>
@@ -2367,7 +2363,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>123</v>
       </c>
@@ -2392,7 +2388,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
         <v>141</v>
       </c>
@@ -2409,7 +2405,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>124</v>
       </c>
@@ -2428,7 +2424,7 @@
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
         <v>142</v>
       </c>
@@ -2447,7 +2443,7 @@
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>125</v>
       </c>
@@ -2475,7 +2471,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +2499,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>127</v>
       </c>
@@ -2517,7 +2513,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11" t="s">
         <v>143</v>
       </c>
@@ -2531,7 +2527,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +2536,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
         <v>23</v>
       </c>
@@ -2549,7 +2545,7 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>90</v>
       </c>
@@ -2569,7 +2565,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>158</v>
       </c>
@@ -2587,7 +2583,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>162</v>
       </c>
@@ -2605,7 +2601,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
         <v>128</v>
       </c>
@@ -2622,7 +2618,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
         <v>133</v>
       </c>
@@ -2639,7 +2635,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
         <v>129</v>
       </c>
@@ -2654,7 +2650,7 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
         <v>130</v>
       </c>
@@ -2678,7 +2674,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>131</v>
       </c>
@@ -2694,7 +2690,7 @@
       <c r="I50" s="9"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
         <v>136</v>
       </c>
@@ -2718,7 +2714,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
         <v>137</v>
       </c>
@@ -2740,7 +2736,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
         <v>138</v>
       </c>
@@ -2763,7 +2759,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
         <v>132</v>
       </c>
@@ -2782,7 +2778,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
         <v>139</v>
       </c>
@@ -2807,7 +2803,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
